--- a/output/1Y_P71_KFSDIV.xlsx
+++ b/output/1Y_P71_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>13.129</v>
       </c>
       <c r="C2" s="1">
-        <v>13.129</v>
+        <v>13.1027</v>
       </c>
       <c r="D2" s="1">
-        <v>13.129</v>
+        <v>13.1553</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>761.6726</v>
+        <v>760.1499</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>12.716</v>
       </c>
       <c r="C3" s="1">
-        <v>12.716</v>
+        <v>12.6906</v>
       </c>
       <c r="D3" s="1">
-        <v>12.716</v>
+        <v>12.7415</v>
       </c>
       <c r="E3" s="1">
-        <v>761.6726</v>
+        <v>760.1499</v>
       </c>
       <c r="F3" s="1">
-        <v>786.4108</v>
+        <v>784.837</v>
       </c>
       <c r="H3" s="1">
-        <v>9685.4292</v>
+        <v>9646.7583</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9685.4292</v>
+        <v>9646.7583</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.129</v>
+        <v>13.1553</v>
       </c>
       <c r="M3" s="1">
         <v>0.3</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0315</v>
+        <v>-0.0353</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,31 +821,31 @@
         <v>12.4613</v>
       </c>
       <c r="C4" s="1">
-        <v>12.4613</v>
+        <v>12.4364</v>
       </c>
       <c r="D4" s="1">
-        <v>12.4613</v>
+        <v>12.4863</v>
       </c>
       <c r="E4" s="1">
-        <v>1548.0835</v>
+        <v>1544.9869</v>
       </c>
       <c r="F4" s="1">
-        <v>802.4845</v>
+        <v>800.8778</v>
       </c>
       <c r="H4" s="1">
-        <v>19291.1323</v>
+        <v>19214.0745</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19291.1323</v>
+        <v>19214.0745</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>12.9192</v>
+        <v>12.9451</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.02</v>
+        <v>-0.022</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,31 +871,31 @@
         <v>12.6545</v>
       </c>
       <c r="C5" s="1">
-        <v>12.6545</v>
+        <v>12.6292</v>
       </c>
       <c r="D5" s="1">
-        <v>12.6545</v>
+        <v>12.6799</v>
       </c>
       <c r="E5" s="1">
-        <v>2350.5679</v>
+        <v>2345.8646</v>
       </c>
       <c r="F5" s="1">
-        <v>790.2327</v>
+        <v>788.6498</v>
       </c>
       <c r="H5" s="1">
-        <v>29745.2621</v>
+        <v>29626.3934</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>29745.2621</v>
+        <v>29626.3934</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>12.7629</v>
+        <v>12.7885</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0155</v>
+        <v>0.0141</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,46 +921,46 @@
         <v>12.2345</v>
       </c>
       <c r="C6" s="1">
-        <v>12.2345</v>
+        <v>12.21</v>
       </c>
       <c r="D6" s="1">
-        <v>12.2345</v>
+        <v>12.259</v>
       </c>
       <c r="E6" s="1">
-        <v>3140.8007</v>
+        <v>3134.5144</v>
       </c>
       <c r="F6" s="1">
-        <v>817.3607</v>
+        <v>815.7272</v>
       </c>
       <c r="H6" s="1">
-        <v>38426.1258</v>
+        <v>38272.4204</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>38426.1258</v>
+        <v>38272.4204</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>12.7356</v>
+        <v>12.7611</v>
       </c>
       <c r="M6" s="1">
         <v>0.3</v>
       </c>
       <c r="N6" s="1">
-        <v>634.6532999999999</v>
+        <v>633.3834000000001</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9365.3467</v>
+        <v>-9366.616599999999</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0332</v>
+        <v>-0.0342</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,31 +971,31 @@
         <v>12.1636</v>
       </c>
       <c r="C7" s="1">
-        <v>12.1636</v>
+        <v>12.1393</v>
       </c>
       <c r="D7" s="1">
-        <v>12.1636</v>
+        <v>12.188</v>
       </c>
       <c r="E7" s="1">
-        <v>3958.1614</v>
+        <v>3950.2416</v>
       </c>
       <c r="F7" s="1">
-        <v>829.5788</v>
+        <v>827.9031</v>
       </c>
       <c r="H7" s="1">
-        <v>48145.4921</v>
+        <v>47953.1677</v>
       </c>
       <c r="I7" s="1">
-        <v>634.6532999999999</v>
+        <v>633.3834000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>48780.1455</v>
+        <v>48586.5511</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>12.6321</v>
+        <v>12.6575</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1007,10 +1007,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10090.6648</v>
+        <v>-10090.4833</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0073</v>
+        <v>0.0065</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,31 +1021,31 @@
         <v>11.8145</v>
       </c>
       <c r="C8" s="1">
-        <v>11.8145</v>
+        <v>11.7909</v>
       </c>
       <c r="D8" s="1">
-        <v>11.8145</v>
+        <v>11.8382</v>
       </c>
       <c r="E8" s="1">
-        <v>4787.7402</v>
+        <v>4778.1447</v>
       </c>
       <c r="F8" s="1">
-        <v>854.0916</v>
+        <v>852.3664</v>
       </c>
       <c r="H8" s="1">
-        <v>56564.7568</v>
+        <v>56338.6265</v>
       </c>
       <c r="I8" s="1">
-        <v>543.9886</v>
+        <v>542.9001</v>
       </c>
       <c r="J8" s="1">
-        <v>57108.7454</v>
+        <v>56881.5266</v>
       </c>
       <c r="K8" s="1">
-        <v>60090.6648</v>
+        <v>60090.4833</v>
       </c>
       <c r="L8" s="1">
-        <v>12.5509</v>
+        <v>12.5761</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10090.6648</v>
+        <v>-10090.4833</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0284</v>
+        <v>-0.0291</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,46 +1071,46 @@
         <v>11.2352</v>
       </c>
       <c r="C9" s="1">
-        <v>11.2352</v>
+        <v>11.2127</v>
       </c>
       <c r="D9" s="1">
-        <v>11.2353</v>
+        <v>11.2577</v>
       </c>
       <c r="E9" s="1">
-        <v>5641.8318</v>
+        <v>5630.5111</v>
       </c>
       <c r="F9" s="1">
-        <v>898.1215</v>
+        <v>896.3184</v>
       </c>
       <c r="H9" s="1">
-        <v>63387.1084</v>
+        <v>63133.2315</v>
       </c>
       <c r="I9" s="1">
-        <v>453.3238</v>
+        <v>452.4167</v>
       </c>
       <c r="J9" s="1">
-        <v>63840.4322</v>
+        <v>63585.6482</v>
       </c>
       <c r="K9" s="1">
-        <v>70181.32950000001</v>
+        <v>70180.9667</v>
       </c>
       <c r="L9" s="1">
-        <v>12.4395</v>
+        <v>12.4644</v>
       </c>
       <c r="M9" s="1">
         <v>0.3</v>
       </c>
       <c r="N9" s="1">
-        <v>1292.6899</v>
+        <v>1290.0991</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8797.974899999999</v>
+        <v>-8800.3843</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0487</v>
+        <v>-0.0493</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,31 +1121,31 @@
         <v>10.8241</v>
       </c>
       <c r="C10" s="1">
-        <v>10.8241</v>
+        <v>10.8024</v>
       </c>
       <c r="D10" s="1">
-        <v>10.8241</v>
+        <v>10.8458</v>
       </c>
       <c r="E10" s="1">
-        <v>6539.9533</v>
+        <v>6526.8294</v>
       </c>
       <c r="F10" s="1">
-        <v>962.0973</v>
+        <v>960.0959</v>
       </c>
       <c r="H10" s="1">
-        <v>70789.10860000001</v>
+        <v>70505.4224</v>
       </c>
       <c r="I10" s="1">
-        <v>1655.3489</v>
+        <v>1652.0325</v>
       </c>
       <c r="J10" s="1">
-        <v>72444.4575</v>
+        <v>72157.45480000001</v>
       </c>
       <c r="K10" s="1">
-        <v>80271.99430000001</v>
+        <v>80271.45</v>
       </c>
       <c r="L10" s="1">
-        <v>12.2741</v>
+        <v>12.2987</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10413.8372</v>
+        <v>-10413.0081</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0189</v>
+        <v>-0.0194</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,31 +1171,31 @@
         <v>11.2543</v>
       </c>
       <c r="C11" s="1">
-        <v>11.2543</v>
+        <v>11.2318</v>
       </c>
       <c r="D11" s="1">
-        <v>11.2543</v>
+        <v>11.2769</v>
       </c>
       <c r="E11" s="1">
-        <v>7502.0506</v>
+        <v>7486.9253</v>
       </c>
       <c r="F11" s="1">
-        <v>925.3207</v>
+        <v>923.3928</v>
       </c>
       <c r="H11" s="1">
-        <v>84430.32799999999</v>
+        <v>84091.64810000001</v>
       </c>
       <c r="I11" s="1">
-        <v>1241.5117</v>
+        <v>1239.0244</v>
       </c>
       <c r="J11" s="1">
-        <v>85671.83960000001</v>
+        <v>85330.6724</v>
       </c>
       <c r="K11" s="1">
-        <v>90685.8315</v>
+        <v>90684.45819999999</v>
       </c>
       <c r="L11" s="1">
-        <v>12.0881</v>
+        <v>12.1124</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10413.8372</v>
+        <v>-10413.0081</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0391</v>
+        <v>0.0386</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,46 +1221,46 @@
         <v>10.5675</v>
       </c>
       <c r="C12" s="1">
-        <v>10.5675</v>
+        <v>10.5464</v>
       </c>
       <c r="D12" s="1">
-        <v>10.5676</v>
+        <v>10.5887</v>
       </c>
       <c r="E12" s="1">
-        <v>8427.371300000001</v>
+        <v>8410.3181</v>
       </c>
       <c r="F12" s="1">
-        <v>985.4496</v>
+        <v>983.4076</v>
       </c>
       <c r="H12" s="1">
-        <v>89056.2466</v>
+        <v>88698.5791</v>
       </c>
       <c r="I12" s="1">
-        <v>827.6745</v>
+        <v>826.0162</v>
       </c>
       <c r="J12" s="1">
-        <v>89883.921</v>
+        <v>89524.59540000001</v>
       </c>
       <c r="K12" s="1">
-        <v>101099.6687</v>
+        <v>101097.4663</v>
       </c>
       <c r="L12" s="1">
-        <v>11.9966</v>
+        <v>12.0206</v>
       </c>
       <c r="M12" s="1">
         <v>0.3</v>
       </c>
       <c r="N12" s="1">
-        <v>2025.5537</v>
+        <v>2021.4698</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-8388.283600000001</v>
+        <v>-8391.5383</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0605</v>
+        <v>-0.0609</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,31 +1271,31 @@
         <v>9.967000000000001</v>
       </c>
       <c r="C13" s="1">
-        <v>9.967000000000001</v>
+        <v>9.947100000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>9.967000000000001</v>
+        <v>9.987</v>
       </c>
       <c r="E13" s="1">
-        <v>9412.820900000001</v>
+        <v>9393.725700000001</v>
       </c>
       <c r="F13" s="1">
-        <v>1248.0577</v>
+        <v>1245.0664</v>
       </c>
       <c r="H13" s="1">
-        <v>93817.5863</v>
+        <v>93440.3293</v>
       </c>
       <c r="I13" s="1">
-        <v>2439.3909</v>
+        <v>2434.478</v>
       </c>
       <c r="J13" s="1">
-        <v>96256.97719999999</v>
+        <v>95874.8072</v>
       </c>
       <c r="K13" s="1">
-        <v>111513.506</v>
+        <v>111510.4744</v>
       </c>
       <c r="L13" s="1">
-        <v>11.847</v>
+        <v>11.8707</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-12439.3909</v>
+        <v>-12434.478</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0363</v>
+        <v>-0.0367</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,31 +1321,31 @@
         <v>10.0064</v>
       </c>
       <c r="C14" s="1">
-        <v>10.0064</v>
+        <v>9.9864</v>
       </c>
       <c r="D14" s="1">
-        <v>10.0064</v>
+        <v>10.0265</v>
       </c>
       <c r="E14" s="1">
-        <v>10660.8786</v>
+        <v>10638.7921</v>
       </c>
       <c r="F14" s="1">
-        <v>-10660.8786</v>
+        <v>-10638.7921</v>
       </c>
       <c r="H14" s="1">
-        <v>106677.0158</v>
+        <v>106243.2336</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>106677.0158</v>
+        <v>106243.2336</v>
       </c>
       <c r="K14" s="1">
-        <v>123952.8969</v>
+        <v>123944.9524</v>
       </c>
       <c r="L14" s="1">
-        <v>11.6269</v>
+        <v>11.6503</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>106677.0158</v>
+        <v>106243.2336</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.004</v>
+        <v>0.0035</v>
       </c>
     </row>
   </sheetData>
@@ -1385,7 +1385,7 @@
     <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
@@ -1456,16 +1456,16 @@
         <v>13.129</v>
       </c>
       <c r="C2" s="1">
-        <v>13.129</v>
+        <v>13.1027</v>
       </c>
       <c r="D2" s="1">
-        <v>13.129</v>
+        <v>13.1553</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>761.6726</v>
+        <v>760.1499</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>12.716</v>
       </c>
       <c r="C3" s="1">
-        <v>12.716</v>
+        <v>12.6906</v>
       </c>
       <c r="D3" s="1">
-        <v>12.716</v>
+        <v>12.7415</v>
       </c>
       <c r="E3" s="1">
-        <v>761.6726</v>
+        <v>760.1499</v>
       </c>
       <c r="F3" s="1">
-        <v>786.4108</v>
+        <v>784.837</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>9685.4292</v>
+        <v>9646.7583</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9685.4292</v>
+        <v>9646.7583</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.129</v>
+        <v>13.1553</v>
       </c>
       <c r="M3" s="1">
         <v>0.3</v>
@@ -1545,7 +1545,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0315</v>
+        <v>-0.0353</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,34 +1556,34 @@
         <v>12.4613</v>
       </c>
       <c r="C4" s="1">
-        <v>12.4613</v>
+        <v>12.4364</v>
       </c>
       <c r="D4" s="1">
-        <v>12.4613</v>
+        <v>12.4863</v>
       </c>
       <c r="E4" s="1">
-        <v>1548.0835</v>
+        <v>1544.9869</v>
       </c>
       <c r="F4" s="1">
-        <v>802.4845</v>
+        <v>800.8778</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>19291.1323</v>
+        <v>19214.0745</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19291.1323</v>
+        <v>19214.0745</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>12.9192</v>
+        <v>12.9451</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.02</v>
+        <v>-0.022</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,34 +1609,34 @@
         <v>12.6545</v>
       </c>
       <c r="C5" s="1">
-        <v>12.6545</v>
+        <v>12.6292</v>
       </c>
       <c r="D5" s="1">
-        <v>12.6545</v>
+        <v>12.6799</v>
       </c>
       <c r="E5" s="1">
-        <v>2350.5679</v>
+        <v>2345.8646</v>
       </c>
       <c r="F5" s="1">
-        <v>790.2327</v>
+        <v>788.6498</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>29745.2621</v>
+        <v>29626.3934</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>29745.2621</v>
+        <v>29626.3934</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>12.7629</v>
+        <v>12.7885</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1651,7 +1651,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0155</v>
+        <v>0.0141</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,49 +1662,49 @@
         <v>12.2345</v>
       </c>
       <c r="C6" s="1">
-        <v>12.2345</v>
+        <v>12.21</v>
       </c>
       <c r="D6" s="1">
-        <v>12.2345</v>
+        <v>12.259</v>
       </c>
       <c r="E6" s="1">
-        <v>3140.8007</v>
+        <v>3134.5144</v>
       </c>
       <c r="F6" s="1">
-        <v>817.3607</v>
+        <v>815.7272</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>38426.1258</v>
+        <v>38272.4204</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>38426.1258</v>
+        <v>38272.4204</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>12.7356</v>
+        <v>12.7611</v>
       </c>
       <c r="M6" s="1">
         <v>0.3</v>
       </c>
       <c r="N6" s="1">
-        <v>634.6532999999999</v>
+        <v>633.3834000000001</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9365.3467</v>
+        <v>-9366.616599999999</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0332</v>
+        <v>-0.0342</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,34 +1715,34 @@
         <v>12.1636</v>
       </c>
       <c r="C7" s="1">
-        <v>12.1636</v>
+        <v>12.1393</v>
       </c>
       <c r="D7" s="1">
-        <v>12.1636</v>
+        <v>12.188</v>
       </c>
       <c r="E7" s="1">
-        <v>3958.1614</v>
+        <v>3950.2416</v>
       </c>
       <c r="F7" s="1">
-        <v>874.3015</v>
+        <v>872.447</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>48145.4921</v>
+        <v>47953.1677</v>
       </c>
       <c r="I7" s="1">
-        <v>634.6532999999999</v>
+        <v>633.3834000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>48780.1455</v>
+        <v>48586.5511</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>12.6321</v>
+        <v>12.6575</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1754,10 +1754,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10634.6533</v>
+        <v>-10633.3834</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0073</v>
+        <v>0.0065</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,34 +1768,34 @@
         <v>11.8145</v>
       </c>
       <c r="C8" s="1">
-        <v>11.8145</v>
+        <v>11.7909</v>
       </c>
       <c r="D8" s="1">
-        <v>11.8145</v>
+        <v>11.8382</v>
       </c>
       <c r="E8" s="1">
-        <v>4832.4629</v>
+        <v>4822.6885</v>
       </c>
       <c r="F8" s="1">
-        <v>846.4175</v>
+        <v>844.723</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>57093.1327</v>
+        <v>56863.8383</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>57093.1327</v>
+        <v>56863.8383</v>
       </c>
       <c r="K8" s="1">
-        <v>60634.6533</v>
+        <v>60633.3834</v>
       </c>
       <c r="L8" s="1">
-        <v>12.5474</v>
+        <v>12.5725</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0287</v>
+        <v>-0.0294</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,49 +1821,49 @@
         <v>11.2352</v>
       </c>
       <c r="C9" s="1">
-        <v>11.2352</v>
+        <v>11.2127</v>
       </c>
       <c r="D9" s="1">
-        <v>11.2353</v>
+        <v>11.2577</v>
       </c>
       <c r="E9" s="1">
-        <v>5678.8804</v>
+        <v>5667.4116</v>
       </c>
       <c r="F9" s="1">
-        <v>890.0519</v>
+        <v>888.2809</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>63803.3573</v>
+        <v>63546.9855</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>63803.3573</v>
+        <v>63546.9855</v>
       </c>
       <c r="K9" s="1">
-        <v>70634.65330000001</v>
+        <v>70633.38340000001</v>
       </c>
       <c r="L9" s="1">
-        <v>12.4381</v>
+        <v>12.4631</v>
       </c>
       <c r="M9" s="1">
         <v>0.3</v>
       </c>
       <c r="N9" s="1">
-        <v>1304.765</v>
+        <v>1302.1259</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8695.235000000001</v>
+        <v>-8697.874100000001</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.049</v>
+        <v>-0.0496</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,34 +1874,34 @@
         <v>10.8241</v>
       </c>
       <c r="C10" s="1">
-        <v>10.8241</v>
+        <v>10.8024</v>
       </c>
       <c r="D10" s="1">
-        <v>10.8241</v>
+        <v>10.8458</v>
       </c>
       <c r="E10" s="1">
-        <v>6568.9323</v>
+        <v>6555.6925</v>
       </c>
       <c r="F10" s="1">
-        <v>1044.4069</v>
+        <v>1042.074</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>71102.78019999999</v>
+        <v>70817.2123</v>
       </c>
       <c r="I10" s="1">
-        <v>1304.765</v>
+        <v>1302.1259</v>
       </c>
       <c r="J10" s="1">
-        <v>72407.54519999999</v>
+        <v>72119.3382</v>
       </c>
       <c r="K10" s="1">
-        <v>80634.65330000001</v>
+        <v>80633.38340000001</v>
       </c>
       <c r="L10" s="1">
-        <v>12.2752</v>
+        <v>12.2998</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1913,10 +1913,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-11304.765</v>
+        <v>-11302.1259</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0189</v>
+        <v>-0.0194</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,34 +1927,34 @@
         <v>11.2543</v>
       </c>
       <c r="C11" s="1">
-        <v>11.2543</v>
+        <v>11.2318</v>
       </c>
       <c r="D11" s="1">
-        <v>11.2543</v>
+        <v>11.2769</v>
       </c>
       <c r="E11" s="1">
-        <v>7613.3392</v>
+        <v>7597.7664</v>
       </c>
       <c r="F11" s="1">
-        <v>888.5493</v>
+        <v>886.7685</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>85682.8037</v>
+        <v>85336.5931</v>
       </c>
       <c r="I11" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J11" s="1">
-        <v>85682.8037</v>
+        <v>85336.5931</v>
       </c>
       <c r="K11" s="1">
-        <v>91939.4183</v>
+        <v>91935.5094</v>
       </c>
       <c r="L11" s="1">
-        <v>12.0761</v>
+        <v>12.1003</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1969,7 +1969,7 @@
         <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0397</v>
+        <v>0.0392</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,49 +1980,49 @@
         <v>10.5675</v>
       </c>
       <c r="C12" s="1">
-        <v>10.5675</v>
+        <v>10.5464</v>
       </c>
       <c r="D12" s="1">
-        <v>10.5676</v>
+        <v>10.5887</v>
       </c>
       <c r="E12" s="1">
-        <v>8501.888499999999</v>
+        <v>8484.535</v>
       </c>
       <c r="F12" s="1">
-        <v>946.2886999999999</v>
+        <v>944.403</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>89843.7067</v>
+        <v>89481.2996</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>89843.7067</v>
+        <v>89481.2996</v>
       </c>
       <c r="K12" s="1">
-        <v>101939.4183</v>
+        <v>101935.5094</v>
       </c>
       <c r="L12" s="1">
-        <v>11.9902</v>
+        <v>12.0143</v>
       </c>
       <c r="M12" s="1">
         <v>0.3</v>
       </c>
       <c r="N12" s="1">
-        <v>2055.6016</v>
+        <v>2051.3969</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-7944.3984</v>
+        <v>-7948.6031</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.061</v>
+        <v>-0.0614</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,34 +2033,34 @@
         <v>9.967000000000001</v>
       </c>
       <c r="C13" s="1">
-        <v>9.967000000000001</v>
+        <v>9.947100000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>9.967000000000001</v>
+        <v>9.987</v>
       </c>
       <c r="E13" s="1">
-        <v>9448.1772</v>
+        <v>9428.938</v>
       </c>
       <c r="F13" s="1">
-        <v>1209.5517</v>
+        <v>1206.7084</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>94169.9817</v>
+        <v>93790.5888</v>
       </c>
       <c r="I13" s="1">
-        <v>2055.6016</v>
+        <v>2051.3969</v>
       </c>
       <c r="J13" s="1">
-        <v>96225.5833</v>
+        <v>95841.9857</v>
       </c>
       <c r="K13" s="1">
-        <v>111939.4183</v>
+        <v>111935.5094</v>
       </c>
       <c r="L13" s="1">
-        <v>11.8477</v>
+        <v>11.8715</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2072,10 +2072,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-12055.6016</v>
+        <v>-12051.3969</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0362</v>
+        <v>-0.0366</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,34 +2086,34 @@
         <v>10.0064</v>
       </c>
       <c r="C14" s="1">
-        <v>10.0064</v>
+        <v>9.9864</v>
       </c>
       <c r="D14" s="1">
-        <v>10.0064</v>
+        <v>10.0265</v>
       </c>
       <c r="E14" s="1">
-        <v>10657.7288</v>
+        <v>10635.6464</v>
       </c>
       <c r="F14" s="1">
-        <v>-10657.7288</v>
+        <v>-10635.6464</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>106645.4978</v>
+        <v>106211.819</v>
       </c>
       <c r="I14" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J14" s="1">
-        <v>106645.4978</v>
+        <v>106211.819</v>
       </c>
       <c r="K14" s="1">
-        <v>123995.0199</v>
+        <v>123986.9063</v>
       </c>
       <c r="L14" s="1">
-        <v>11.6343</v>
+        <v>11.6577</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>106645.4978</v>
+        <v>106211.819</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.004</v>
+        <v>0.0035</v>
       </c>
     </row>
   </sheetData>
@@ -2153,7 +2153,7 @@
     <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
@@ -2224,16 +2224,16 @@
         <v>13.129</v>
       </c>
       <c r="C2" s="1">
-        <v>13.129</v>
+        <v>13.1027</v>
       </c>
       <c r="D2" s="1">
-        <v>13.129</v>
+        <v>13.1553</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>761.6726</v>
+        <v>760.1499</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>12.716</v>
       </c>
       <c r="C3" s="1">
-        <v>12.716</v>
+        <v>12.6906</v>
       </c>
       <c r="D3" s="1">
-        <v>12.716</v>
+        <v>12.7415</v>
       </c>
       <c r="E3" s="1">
-        <v>761.6726</v>
+        <v>760.1499</v>
       </c>
       <c r="F3" s="1">
-        <v>786.4108</v>
+        <v>784.837</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>9685.4292</v>
+        <v>9646.7583</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9685.4292</v>
+        <v>9646.7583</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.129</v>
+        <v>13.1553</v>
       </c>
       <c r="M3" s="1">
         <v>0.3</v>
@@ -2313,7 +2313,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0315</v>
+        <v>-0.0353</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,34 +2324,34 @@
         <v>12.4613</v>
       </c>
       <c r="C4" s="1">
-        <v>12.4613</v>
+        <v>12.4364</v>
       </c>
       <c r="D4" s="1">
-        <v>12.4613</v>
+        <v>12.4863</v>
       </c>
       <c r="E4" s="1">
-        <v>1548.0835</v>
+        <v>1544.9869</v>
       </c>
       <c r="F4" s="1">
-        <v>802.4845</v>
+        <v>800.8778</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>19291.1323</v>
+        <v>19214.0745</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19291.1323</v>
+        <v>19214.0745</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>12.9192</v>
+        <v>12.9451</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.02</v>
+        <v>-0.022</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,34 +2377,34 @@
         <v>12.6545</v>
       </c>
       <c r="C5" s="1">
-        <v>12.6545</v>
+        <v>12.6292</v>
       </c>
       <c r="D5" s="1">
-        <v>12.6545</v>
+        <v>12.6799</v>
       </c>
       <c r="E5" s="1">
-        <v>2350.5679</v>
+        <v>2345.8646</v>
       </c>
       <c r="F5" s="1">
-        <v>790.2327</v>
+        <v>788.6498</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>29745.2621</v>
+        <v>29626.3934</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>29745.2621</v>
+        <v>29626.3934</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>12.7629</v>
+        <v>12.7885</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -2419,7 +2419,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0155</v>
+        <v>0.0141</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,49 +2430,49 @@
         <v>12.2345</v>
       </c>
       <c r="C6" s="1">
-        <v>12.2345</v>
+        <v>12.21</v>
       </c>
       <c r="D6" s="1">
-        <v>12.2345</v>
+        <v>12.259</v>
       </c>
       <c r="E6" s="1">
-        <v>3140.8007</v>
+        <v>3134.5144</v>
       </c>
       <c r="F6" s="1">
-        <v>817.3607</v>
+        <v>815.7272</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>38426.1258</v>
+        <v>38272.4204</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>38426.1258</v>
+        <v>38272.4204</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>12.7356</v>
+        <v>12.7611</v>
       </c>
       <c r="M6" s="1">
         <v>0.3</v>
       </c>
       <c r="N6" s="1">
-        <v>634.6532999999999</v>
+        <v>633.3834000000001</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9365.3467</v>
+        <v>-9366.616599999999</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0332</v>
+        <v>-0.0342</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,34 +2483,34 @@
         <v>12.1636</v>
       </c>
       <c r="C7" s="1">
-        <v>12.1636</v>
+        <v>12.1393</v>
       </c>
       <c r="D7" s="1">
-        <v>12.1636</v>
+        <v>12.188</v>
       </c>
       <c r="E7" s="1">
-        <v>3958.1614</v>
+        <v>3950.2416</v>
       </c>
       <c r="F7" s="1">
-        <v>874.3015</v>
+        <v>872.447</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>48145.4921</v>
+        <v>47953.1677</v>
       </c>
       <c r="I7" s="1">
-        <v>634.6532999999999</v>
+        <v>633.3834000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>48780.1455</v>
+        <v>48586.5511</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>12.6321</v>
+        <v>12.6575</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -2522,10 +2522,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10634.6533</v>
+        <v>-10633.3834</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0073</v>
+        <v>0.0065</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,34 +2536,34 @@
         <v>11.8145</v>
       </c>
       <c r="C8" s="1">
-        <v>11.8145</v>
+        <v>11.7909</v>
       </c>
       <c r="D8" s="1">
-        <v>11.8145</v>
+        <v>11.8382</v>
       </c>
       <c r="E8" s="1">
-        <v>4832.4629</v>
+        <v>4822.6885</v>
       </c>
       <c r="F8" s="1">
-        <v>846.4175</v>
+        <v>844.723</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>57093.1327</v>
+        <v>56863.8383</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>57093.1327</v>
+        <v>56863.8383</v>
       </c>
       <c r="K8" s="1">
-        <v>60634.6533</v>
+        <v>60633.3834</v>
       </c>
       <c r="L8" s="1">
-        <v>12.5474</v>
+        <v>12.5725</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -2578,7 +2578,7 @@
         <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0287</v>
+        <v>-0.0294</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,49 +2589,49 @@
         <v>11.2352</v>
       </c>
       <c r="C9" s="1">
-        <v>11.2352</v>
+        <v>11.2127</v>
       </c>
       <c r="D9" s="1">
-        <v>11.2353</v>
+        <v>11.2577</v>
       </c>
       <c r="E9" s="1">
-        <v>5678.8804</v>
+        <v>5667.4116</v>
       </c>
       <c r="F9" s="1">
-        <v>890.0519</v>
+        <v>888.2809</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>63803.3573</v>
+        <v>63546.9855</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>63803.3573</v>
+        <v>63546.9855</v>
       </c>
       <c r="K9" s="1">
-        <v>70634.65330000001</v>
+        <v>70633.38340000001</v>
       </c>
       <c r="L9" s="1">
-        <v>12.4381</v>
+        <v>12.4631</v>
       </c>
       <c r="M9" s="1">
         <v>0.3</v>
       </c>
       <c r="N9" s="1">
-        <v>1304.765</v>
+        <v>1302.1259</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8695.235000000001</v>
+        <v>-8697.874100000001</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.049</v>
+        <v>-0.0496</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,34 +2642,34 @@
         <v>10.8241</v>
       </c>
       <c r="C10" s="1">
-        <v>10.8241</v>
+        <v>10.8024</v>
       </c>
       <c r="D10" s="1">
-        <v>10.8241</v>
+        <v>10.8458</v>
       </c>
       <c r="E10" s="1">
-        <v>6568.9323</v>
+        <v>6555.6925</v>
       </c>
       <c r="F10" s="1">
-        <v>1044.4069</v>
+        <v>1042.074</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>71102.78019999999</v>
+        <v>70817.2123</v>
       </c>
       <c r="I10" s="1">
-        <v>1304.765</v>
+        <v>1302.1259</v>
       </c>
       <c r="J10" s="1">
-        <v>72407.54519999999</v>
+        <v>72119.3382</v>
       </c>
       <c r="K10" s="1">
-        <v>80634.65330000001</v>
+        <v>80633.38340000001</v>
       </c>
       <c r="L10" s="1">
-        <v>12.2752</v>
+        <v>12.2998</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-11304.765</v>
+        <v>-11302.1259</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0189</v>
+        <v>-0.0194</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,34 +2695,34 @@
         <v>11.2543</v>
       </c>
       <c r="C11" s="1">
-        <v>11.2543</v>
+        <v>11.2318</v>
       </c>
       <c r="D11" s="1">
-        <v>11.2543</v>
+        <v>11.2769</v>
       </c>
       <c r="E11" s="1">
-        <v>7613.3392</v>
+        <v>7597.7664</v>
       </c>
       <c r="F11" s="1">
-        <v>888.5493</v>
+        <v>886.7685</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>85682.8037</v>
+        <v>85336.5931</v>
       </c>
       <c r="I11" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J11" s="1">
-        <v>85682.8037</v>
+        <v>85336.5931</v>
       </c>
       <c r="K11" s="1">
-        <v>91939.4183</v>
+        <v>91935.5094</v>
       </c>
       <c r="L11" s="1">
-        <v>12.0761</v>
+        <v>12.1003</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -2737,7 +2737,7 @@
         <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0397</v>
+        <v>0.0392</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,49 +2748,49 @@
         <v>10.5675</v>
       </c>
       <c r="C12" s="1">
-        <v>10.5675</v>
+        <v>10.5464</v>
       </c>
       <c r="D12" s="1">
-        <v>10.5676</v>
+        <v>10.5887</v>
       </c>
       <c r="E12" s="1">
-        <v>8501.888499999999</v>
+        <v>8484.535</v>
       </c>
       <c r="F12" s="1">
-        <v>946.2886999999999</v>
+        <v>944.403</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>89843.7067</v>
+        <v>89481.2996</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>89843.7067</v>
+        <v>89481.2996</v>
       </c>
       <c r="K12" s="1">
-        <v>101939.4183</v>
+        <v>101935.5094</v>
       </c>
       <c r="L12" s="1">
-        <v>11.9902</v>
+        <v>12.0143</v>
       </c>
       <c r="M12" s="1">
         <v>0.3</v>
       </c>
       <c r="N12" s="1">
-        <v>2055.6016</v>
+        <v>2051.3969</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-7944.3984</v>
+        <v>-7948.6031</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.061</v>
+        <v>-0.0614</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,34 +2801,34 @@
         <v>9.967000000000001</v>
       </c>
       <c r="C13" s="1">
-        <v>9.967000000000001</v>
+        <v>9.947100000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>9.967000000000001</v>
+        <v>9.987</v>
       </c>
       <c r="E13" s="1">
-        <v>9448.1772</v>
+        <v>9428.938</v>
       </c>
       <c r="F13" s="1">
-        <v>1209.5517</v>
+        <v>1206.7084</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>94169.9817</v>
+        <v>93790.5888</v>
       </c>
       <c r="I13" s="1">
-        <v>2055.6016</v>
+        <v>2051.3969</v>
       </c>
       <c r="J13" s="1">
-        <v>96225.5833</v>
+        <v>95841.9857</v>
       </c>
       <c r="K13" s="1">
-        <v>111939.4183</v>
+        <v>111935.5094</v>
       </c>
       <c r="L13" s="1">
-        <v>11.8477</v>
+        <v>11.8715</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-12055.6016</v>
+        <v>-12051.3969</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0362</v>
+        <v>-0.0366</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,34 +2854,34 @@
         <v>10.0064</v>
       </c>
       <c r="C14" s="1">
-        <v>10.0064</v>
+        <v>9.9864</v>
       </c>
       <c r="D14" s="1">
-        <v>10.0064</v>
+        <v>10.0265</v>
       </c>
       <c r="E14" s="1">
-        <v>10657.7288</v>
+        <v>10635.6464</v>
       </c>
       <c r="F14" s="1">
-        <v>-10657.7288</v>
+        <v>-10635.6464</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>106645.4978</v>
+        <v>106211.819</v>
       </c>
       <c r="I14" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J14" s="1">
-        <v>106645.4978</v>
+        <v>106211.819</v>
       </c>
       <c r="K14" s="1">
-        <v>123995.0199</v>
+        <v>123986.9063</v>
       </c>
       <c r="L14" s="1">
-        <v>11.6343</v>
+        <v>11.6577</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2893,10 +2893,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>106645.4978</v>
+        <v>106211.819</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.004</v>
+        <v>0.0035</v>
       </c>
     </row>
   </sheetData>
@@ -2921,7 +2921,7 @@
     <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
@@ -2992,16 +2992,16 @@
         <v>13.129</v>
       </c>
       <c r="C2" s="1">
-        <v>13.129</v>
+        <v>13.1027</v>
       </c>
       <c r="D2" s="1">
-        <v>13.129</v>
+        <v>13.1553</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>761.6726</v>
+        <v>760.1499</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>12.716</v>
       </c>
       <c r="C3" s="1">
-        <v>12.716</v>
+        <v>12.6906</v>
       </c>
       <c r="D3" s="1">
-        <v>12.716</v>
+        <v>12.7415</v>
       </c>
       <c r="E3" s="1">
-        <v>761.6726</v>
+        <v>760.1499</v>
       </c>
       <c r="F3" s="1">
-        <v>786.4108</v>
+        <v>784.837</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>9685.4292</v>
+        <v>9646.7583</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9685.4292</v>
+        <v>9646.7583</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.129</v>
+        <v>13.1553</v>
       </c>
       <c r="M3" s="1">
         <v>0.3</v>
@@ -3081,7 +3081,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0315</v>
+        <v>-0.0353</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,34 +3092,34 @@
         <v>12.4613</v>
       </c>
       <c r="C4" s="1">
-        <v>12.4613</v>
+        <v>12.4364</v>
       </c>
       <c r="D4" s="1">
-        <v>12.4613</v>
+        <v>12.4863</v>
       </c>
       <c r="E4" s="1">
-        <v>1548.0835</v>
+        <v>1544.9869</v>
       </c>
       <c r="F4" s="1">
-        <v>802.4845</v>
+        <v>800.8778</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>19291.1323</v>
+        <v>19214.0745</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19291.1323</v>
+        <v>19214.0745</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>12.9192</v>
+        <v>12.9451</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3134,7 +3134,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.02</v>
+        <v>-0.022</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,34 +3145,34 @@
         <v>12.6545</v>
       </c>
       <c r="C5" s="1">
-        <v>12.6545</v>
+        <v>12.6292</v>
       </c>
       <c r="D5" s="1">
-        <v>12.6545</v>
+        <v>12.6799</v>
       </c>
       <c r="E5" s="1">
-        <v>2350.5679</v>
+        <v>2345.8646</v>
       </c>
       <c r="F5" s="1">
-        <v>790.2327</v>
+        <v>788.6498</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>29745.2621</v>
+        <v>29626.3934</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>29745.2621</v>
+        <v>29626.3934</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>12.7629</v>
+        <v>12.7885</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3187,7 +3187,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0155</v>
+        <v>0.0141</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,49 +3198,49 @@
         <v>12.2345</v>
       </c>
       <c r="C6" s="1">
-        <v>12.2345</v>
+        <v>12.21</v>
       </c>
       <c r="D6" s="1">
-        <v>12.2345</v>
+        <v>12.259</v>
       </c>
       <c r="E6" s="1">
-        <v>3140.8007</v>
+        <v>3134.5144</v>
       </c>
       <c r="F6" s="1">
-        <v>817.3607</v>
+        <v>815.7272</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>38426.1258</v>
+        <v>38272.4204</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>38426.1258</v>
+        <v>38272.4204</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>12.7356</v>
+        <v>12.7611</v>
       </c>
       <c r="M6" s="1">
         <v>0.3</v>
       </c>
       <c r="N6" s="1">
-        <v>634.6532999999999</v>
+        <v>633.3834000000001</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9365.3467</v>
+        <v>-9366.616599999999</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0332</v>
+        <v>-0.0342</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,34 +3251,34 @@
         <v>12.1636</v>
       </c>
       <c r="C7" s="1">
-        <v>12.1636</v>
+        <v>12.1393</v>
       </c>
       <c r="D7" s="1">
-        <v>12.1636</v>
+        <v>12.188</v>
       </c>
       <c r="E7" s="1">
-        <v>3958.1614</v>
+        <v>3950.2416</v>
       </c>
       <c r="F7" s="1">
-        <v>874.3015</v>
+        <v>872.447</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>48145.4921</v>
+        <v>47953.1677</v>
       </c>
       <c r="I7" s="1">
-        <v>634.6532999999999</v>
+        <v>633.3834000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>48780.1455</v>
+        <v>48586.5511</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>12.6321</v>
+        <v>12.6575</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -3290,10 +3290,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10634.6533</v>
+        <v>-10633.3834</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0073</v>
+        <v>0.0065</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,34 +3304,34 @@
         <v>11.8145</v>
       </c>
       <c r="C8" s="1">
-        <v>11.8145</v>
+        <v>11.7909</v>
       </c>
       <c r="D8" s="1">
-        <v>11.8145</v>
+        <v>11.8382</v>
       </c>
       <c r="E8" s="1">
-        <v>4832.4629</v>
+        <v>4822.6885</v>
       </c>
       <c r="F8" s="1">
-        <v>846.4175</v>
+        <v>844.723</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>57093.1327</v>
+        <v>56863.8383</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>57093.1327</v>
+        <v>56863.8383</v>
       </c>
       <c r="K8" s="1">
-        <v>60634.6533</v>
+        <v>60633.3834</v>
       </c>
       <c r="L8" s="1">
-        <v>12.5474</v>
+        <v>12.5725</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -3346,7 +3346,7 @@
         <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0287</v>
+        <v>-0.0294</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,49 +3357,49 @@
         <v>11.2352</v>
       </c>
       <c r="C9" s="1">
-        <v>11.2352</v>
+        <v>11.2127</v>
       </c>
       <c r="D9" s="1">
-        <v>11.2353</v>
+        <v>11.2577</v>
       </c>
       <c r="E9" s="1">
-        <v>5678.8804</v>
+        <v>5667.4116</v>
       </c>
       <c r="F9" s="1">
-        <v>890.0519</v>
+        <v>888.2809</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>63803.3573</v>
+        <v>63546.9855</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>63803.3573</v>
+        <v>63546.9855</v>
       </c>
       <c r="K9" s="1">
-        <v>70634.65330000001</v>
+        <v>70633.38340000001</v>
       </c>
       <c r="L9" s="1">
-        <v>12.4381</v>
+        <v>12.4631</v>
       </c>
       <c r="M9" s="1">
         <v>0.3</v>
       </c>
       <c r="N9" s="1">
-        <v>1304.765</v>
+        <v>1302.1259</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8695.235000000001</v>
+        <v>-8697.874100000001</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.049</v>
+        <v>-0.0496</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,34 +3410,34 @@
         <v>10.8241</v>
       </c>
       <c r="C10" s="1">
-        <v>10.8241</v>
+        <v>10.8024</v>
       </c>
       <c r="D10" s="1">
-        <v>10.8241</v>
+        <v>10.8458</v>
       </c>
       <c r="E10" s="1">
-        <v>6568.9323</v>
+        <v>6555.6925</v>
       </c>
       <c r="F10" s="1">
-        <v>1044.4069</v>
+        <v>1042.074</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>71102.78019999999</v>
+        <v>70817.2123</v>
       </c>
       <c r="I10" s="1">
-        <v>1304.765</v>
+        <v>1302.1259</v>
       </c>
       <c r="J10" s="1">
-        <v>72407.54519999999</v>
+        <v>72119.3382</v>
       </c>
       <c r="K10" s="1">
-        <v>80634.65330000001</v>
+        <v>80633.38340000001</v>
       </c>
       <c r="L10" s="1">
-        <v>12.2752</v>
+        <v>12.2998</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -3449,10 +3449,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-11304.765</v>
+        <v>-11302.1259</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0189</v>
+        <v>-0.0194</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,34 +3463,34 @@
         <v>11.2543</v>
       </c>
       <c r="C11" s="1">
-        <v>11.2543</v>
+        <v>11.2318</v>
       </c>
       <c r="D11" s="1">
-        <v>11.2543</v>
+        <v>11.2769</v>
       </c>
       <c r="E11" s="1">
-        <v>7613.3392</v>
+        <v>7597.7664</v>
       </c>
       <c r="F11" s="1">
-        <v>888.5493</v>
+        <v>886.7685</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>85682.8037</v>
+        <v>85336.5931</v>
       </c>
       <c r="I11" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J11" s="1">
-        <v>85682.8037</v>
+        <v>85336.5931</v>
       </c>
       <c r="K11" s="1">
-        <v>91939.4183</v>
+        <v>91935.5094</v>
       </c>
       <c r="L11" s="1">
-        <v>12.0761</v>
+        <v>12.1003</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0397</v>
+        <v>0.0392</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,49 +3516,49 @@
         <v>10.5675</v>
       </c>
       <c r="C12" s="1">
-        <v>10.5675</v>
+        <v>10.5464</v>
       </c>
       <c r="D12" s="1">
-        <v>10.5676</v>
+        <v>10.5887</v>
       </c>
       <c r="E12" s="1">
-        <v>8501.888499999999</v>
+        <v>8484.535</v>
       </c>
       <c r="F12" s="1">
-        <v>946.2886999999999</v>
+        <v>944.403</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>89843.7067</v>
+        <v>89481.2996</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>89843.7067</v>
+        <v>89481.2996</v>
       </c>
       <c r="K12" s="1">
-        <v>101939.4183</v>
+        <v>101935.5094</v>
       </c>
       <c r="L12" s="1">
-        <v>11.9902</v>
+        <v>12.0143</v>
       </c>
       <c r="M12" s="1">
         <v>0.3</v>
       </c>
       <c r="N12" s="1">
-        <v>2055.6016</v>
+        <v>2051.3969</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-7944.3984</v>
+        <v>-7948.6031</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.061</v>
+        <v>-0.0614</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,34 +3569,34 @@
         <v>9.967000000000001</v>
       </c>
       <c r="C13" s="1">
-        <v>9.967000000000001</v>
+        <v>9.947100000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>9.967000000000001</v>
+        <v>9.987</v>
       </c>
       <c r="E13" s="1">
-        <v>9448.1772</v>
+        <v>9428.938</v>
       </c>
       <c r="F13" s="1">
-        <v>1209.5517</v>
+        <v>1206.7084</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>94169.9817</v>
+        <v>93790.5888</v>
       </c>
       <c r="I13" s="1">
-        <v>2055.6016</v>
+        <v>2051.3969</v>
       </c>
       <c r="J13" s="1">
-        <v>96225.5833</v>
+        <v>95841.9857</v>
       </c>
       <c r="K13" s="1">
-        <v>111939.4183</v>
+        <v>111935.5094</v>
       </c>
       <c r="L13" s="1">
-        <v>11.8477</v>
+        <v>11.8715</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -3608,10 +3608,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-12055.6016</v>
+        <v>-12051.3969</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0362</v>
+        <v>-0.0366</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,34 +3622,34 @@
         <v>10.0064</v>
       </c>
       <c r="C14" s="1">
-        <v>10.0064</v>
+        <v>9.9864</v>
       </c>
       <c r="D14" s="1">
-        <v>10.0064</v>
+        <v>10.0265</v>
       </c>
       <c r="E14" s="1">
-        <v>10657.7288</v>
+        <v>10635.6464</v>
       </c>
       <c r="F14" s="1">
-        <v>-10657.7288</v>
+        <v>-10635.6464</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>106645.4978</v>
+        <v>106211.819</v>
       </c>
       <c r="I14" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J14" s="1">
-        <v>106645.4978</v>
+        <v>106211.819</v>
       </c>
       <c r="K14" s="1">
-        <v>123995.0199</v>
+        <v>123986.9063</v>
       </c>
       <c r="L14" s="1">
-        <v>11.6343</v>
+        <v>11.6577</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>106645.4978</v>
+        <v>106211.819</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.004</v>
+        <v>0.0035</v>
       </c>
     </row>
   </sheetData>
@@ -3689,7 +3689,7 @@
     <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
@@ -3760,16 +3760,16 @@
         <v>13.129</v>
       </c>
       <c r="C2" s="1">
-        <v>13.129</v>
+        <v>13.1027</v>
       </c>
       <c r="D2" s="1">
-        <v>13.129</v>
+        <v>13.1553</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>761.6726</v>
+        <v>760.1499</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>12.716</v>
       </c>
       <c r="C3" s="1">
-        <v>12.716</v>
+        <v>12.6906</v>
       </c>
       <c r="D3" s="1">
-        <v>12.716</v>
+        <v>12.7415</v>
       </c>
       <c r="E3" s="1">
-        <v>761.6726</v>
+        <v>760.1499</v>
       </c>
       <c r="F3" s="1">
-        <v>786.4108</v>
+        <v>784.837</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>9685.4292</v>
+        <v>9646.7583</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9685.4292</v>
+        <v>9646.7583</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.129</v>
+        <v>13.1553</v>
       </c>
       <c r="M3" s="1">
         <v>0.3</v>
@@ -3849,7 +3849,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0315</v>
+        <v>-0.0353</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,34 +3860,34 @@
         <v>12.4613</v>
       </c>
       <c r="C4" s="1">
-        <v>12.4613</v>
+        <v>12.4364</v>
       </c>
       <c r="D4" s="1">
-        <v>12.4613</v>
+        <v>12.4863</v>
       </c>
       <c r="E4" s="1">
-        <v>1548.0835</v>
+        <v>1544.9869</v>
       </c>
       <c r="F4" s="1">
-        <v>802.4845</v>
+        <v>800.8778</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>19291.1323</v>
+        <v>19214.0745</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19291.1323</v>
+        <v>19214.0745</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>12.9192</v>
+        <v>12.9451</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3902,7 +3902,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.02</v>
+        <v>-0.022</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,34 +3913,34 @@
         <v>12.6545</v>
       </c>
       <c r="C5" s="1">
-        <v>12.6545</v>
+        <v>12.6292</v>
       </c>
       <c r="D5" s="1">
-        <v>12.6545</v>
+        <v>12.6799</v>
       </c>
       <c r="E5" s="1">
-        <v>2350.5679</v>
+        <v>2345.8646</v>
       </c>
       <c r="F5" s="1">
-        <v>790.2327</v>
+        <v>788.6498</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>29745.2621</v>
+        <v>29626.3934</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>29745.2621</v>
+        <v>29626.3934</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>12.7629</v>
+        <v>12.7885</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3955,7 +3955,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0155</v>
+        <v>0.0141</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,49 +3966,49 @@
         <v>12.2345</v>
       </c>
       <c r="C6" s="1">
-        <v>12.2345</v>
+        <v>12.21</v>
       </c>
       <c r="D6" s="1">
-        <v>12.2345</v>
+        <v>12.259</v>
       </c>
       <c r="E6" s="1">
-        <v>3140.8007</v>
+        <v>3134.5144</v>
       </c>
       <c r="F6" s="1">
-        <v>817.3607</v>
+        <v>815.7272</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>38426.1258</v>
+        <v>38272.4204</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>38426.1258</v>
+        <v>38272.4204</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>12.7356</v>
+        <v>12.7611</v>
       </c>
       <c r="M6" s="1">
         <v>0.3</v>
       </c>
       <c r="N6" s="1">
-        <v>634.6532999999999</v>
+        <v>633.3834000000001</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9365.3467</v>
+        <v>-9366.616599999999</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0332</v>
+        <v>-0.0342</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,34 +4019,34 @@
         <v>12.1636</v>
       </c>
       <c r="C7" s="1">
-        <v>12.1636</v>
+        <v>12.1393</v>
       </c>
       <c r="D7" s="1">
-        <v>12.1636</v>
+        <v>12.188</v>
       </c>
       <c r="E7" s="1">
-        <v>3958.1614</v>
+        <v>3950.2416</v>
       </c>
       <c r="F7" s="1">
-        <v>874.3015</v>
+        <v>872.447</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>48145.4921</v>
+        <v>47953.1677</v>
       </c>
       <c r="I7" s="1">
-        <v>634.6532999999999</v>
+        <v>633.3834000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>48780.1455</v>
+        <v>48586.5511</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>12.6321</v>
+        <v>12.6575</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -4058,10 +4058,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10634.6533</v>
+        <v>-10633.3834</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0073</v>
+        <v>0.0065</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,34 +4072,34 @@
         <v>11.8145</v>
       </c>
       <c r="C8" s="1">
-        <v>11.8145</v>
+        <v>11.7909</v>
       </c>
       <c r="D8" s="1">
-        <v>11.8145</v>
+        <v>11.8382</v>
       </c>
       <c r="E8" s="1">
-        <v>4832.4629</v>
+        <v>4822.6885</v>
       </c>
       <c r="F8" s="1">
-        <v>846.4175</v>
+        <v>844.723</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>57093.1327</v>
+        <v>56863.8383</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>57093.1327</v>
+        <v>56863.8383</v>
       </c>
       <c r="K8" s="1">
-        <v>60634.6533</v>
+        <v>60633.3834</v>
       </c>
       <c r="L8" s="1">
-        <v>12.5474</v>
+        <v>12.5725</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -4114,7 +4114,7 @@
         <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0287</v>
+        <v>-0.0294</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,49 +4125,49 @@
         <v>11.2352</v>
       </c>
       <c r="C9" s="1">
-        <v>11.2352</v>
+        <v>11.2127</v>
       </c>
       <c r="D9" s="1">
-        <v>11.2353</v>
+        <v>11.2577</v>
       </c>
       <c r="E9" s="1">
-        <v>5678.8804</v>
+        <v>5667.4116</v>
       </c>
       <c r="F9" s="1">
-        <v>890.0519</v>
+        <v>888.2809</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>63803.3573</v>
+        <v>63546.9855</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>63803.3573</v>
+        <v>63546.9855</v>
       </c>
       <c r="K9" s="1">
-        <v>70634.65330000001</v>
+        <v>70633.38340000001</v>
       </c>
       <c r="L9" s="1">
-        <v>12.4381</v>
+        <v>12.4631</v>
       </c>
       <c r="M9" s="1">
         <v>0.3</v>
       </c>
       <c r="N9" s="1">
-        <v>1304.765</v>
+        <v>1302.1259</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8695.235000000001</v>
+        <v>-8697.874100000001</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.049</v>
+        <v>-0.0496</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,34 +4178,34 @@
         <v>10.8241</v>
       </c>
       <c r="C10" s="1">
-        <v>10.8241</v>
+        <v>10.8024</v>
       </c>
       <c r="D10" s="1">
-        <v>10.8241</v>
+        <v>10.8458</v>
       </c>
       <c r="E10" s="1">
-        <v>6568.9323</v>
+        <v>6555.6925</v>
       </c>
       <c r="F10" s="1">
-        <v>1044.4069</v>
+        <v>1042.074</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>71102.78019999999</v>
+        <v>70817.2123</v>
       </c>
       <c r="I10" s="1">
-        <v>1304.765</v>
+        <v>1302.1259</v>
       </c>
       <c r="J10" s="1">
-        <v>72407.54519999999</v>
+        <v>72119.3382</v>
       </c>
       <c r="K10" s="1">
-        <v>80634.65330000001</v>
+        <v>80633.38340000001</v>
       </c>
       <c r="L10" s="1">
-        <v>12.2752</v>
+        <v>12.2998</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -4217,10 +4217,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-11304.765</v>
+        <v>-11302.1259</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0189</v>
+        <v>-0.0194</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,34 +4231,34 @@
         <v>11.2543</v>
       </c>
       <c r="C11" s="1">
-        <v>11.2543</v>
+        <v>11.2318</v>
       </c>
       <c r="D11" s="1">
-        <v>11.2543</v>
+        <v>11.2769</v>
       </c>
       <c r="E11" s="1">
-        <v>7613.3392</v>
+        <v>7597.7664</v>
       </c>
       <c r="F11" s="1">
-        <v>888.5493</v>
+        <v>886.7685</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>85682.8037</v>
+        <v>85336.5931</v>
       </c>
       <c r="I11" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J11" s="1">
-        <v>85682.8037</v>
+        <v>85336.5931</v>
       </c>
       <c r="K11" s="1">
-        <v>91939.4183</v>
+        <v>91935.5094</v>
       </c>
       <c r="L11" s="1">
-        <v>12.0761</v>
+        <v>12.1003</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -4273,7 +4273,7 @@
         <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0397</v>
+        <v>0.0392</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,49 +4284,49 @@
         <v>10.5675</v>
       </c>
       <c r="C12" s="1">
-        <v>10.5675</v>
+        <v>10.5464</v>
       </c>
       <c r="D12" s="1">
-        <v>10.5676</v>
+        <v>10.5887</v>
       </c>
       <c r="E12" s="1">
-        <v>8501.888499999999</v>
+        <v>8484.535</v>
       </c>
       <c r="F12" s="1">
-        <v>946.2886999999999</v>
+        <v>944.403</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>89843.7067</v>
+        <v>89481.2996</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>89843.7067</v>
+        <v>89481.2996</v>
       </c>
       <c r="K12" s="1">
-        <v>101939.4183</v>
+        <v>101935.5094</v>
       </c>
       <c r="L12" s="1">
-        <v>11.9902</v>
+        <v>12.0143</v>
       </c>
       <c r="M12" s="1">
         <v>0.3</v>
       </c>
       <c r="N12" s="1">
-        <v>2055.6016</v>
+        <v>2051.3969</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-7944.3984</v>
+        <v>-7948.6031</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.061</v>
+        <v>-0.0614</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,34 +4337,34 @@
         <v>9.967000000000001</v>
       </c>
       <c r="C13" s="1">
-        <v>9.967000000000001</v>
+        <v>9.947100000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>9.967000000000001</v>
+        <v>9.987</v>
       </c>
       <c r="E13" s="1">
-        <v>9448.1772</v>
+        <v>9428.938</v>
       </c>
       <c r="F13" s="1">
-        <v>1209.5517</v>
+        <v>1206.7084</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>94169.9817</v>
+        <v>93790.5888</v>
       </c>
       <c r="I13" s="1">
-        <v>2055.6016</v>
+        <v>2051.3969</v>
       </c>
       <c r="J13" s="1">
-        <v>96225.5833</v>
+        <v>95841.9857</v>
       </c>
       <c r="K13" s="1">
-        <v>111939.4183</v>
+        <v>111935.5094</v>
       </c>
       <c r="L13" s="1">
-        <v>11.8477</v>
+        <v>11.8715</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -4376,10 +4376,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-12055.6016</v>
+        <v>-12051.3969</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0362</v>
+        <v>-0.0366</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,34 +4390,34 @@
         <v>10.0064</v>
       </c>
       <c r="C14" s="1">
-        <v>10.0064</v>
+        <v>9.9864</v>
       </c>
       <c r="D14" s="1">
-        <v>10.0064</v>
+        <v>10.0265</v>
       </c>
       <c r="E14" s="1">
-        <v>10657.7288</v>
+        <v>10635.6464</v>
       </c>
       <c r="F14" s="1">
-        <v>-10657.7288</v>
+        <v>-10635.6464</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>106645.4978</v>
+        <v>106211.819</v>
       </c>
       <c r="I14" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J14" s="1">
-        <v>106645.4978</v>
+        <v>106211.819</v>
       </c>
       <c r="K14" s="1">
-        <v>123995.0199</v>
+        <v>123986.9063</v>
       </c>
       <c r="L14" s="1">
-        <v>11.6343</v>
+        <v>11.6577</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -4429,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>106645.4978</v>
+        <v>106211.819</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.004</v>
+        <v>0.0035</v>
       </c>
     </row>
   </sheetData>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>11.6269</v>
+        <v>11.6503</v>
       </c>
       <c r="D3" s="1">
-        <v>11.6343</v>
+        <v>11.6577</v>
       </c>
       <c r="E3" s="1">
-        <v>11.6343</v>
+        <v>11.6577</v>
       </c>
       <c r="F3" s="1">
-        <v>11.6343</v>
+        <v>11.6577</v>
       </c>
       <c r="G3" s="1">
-        <v>11.6343</v>
+        <v>11.6577</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>-0.2634</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.2116</v>
+        <v>-0.2242</v>
       </c>
       <c r="D4" s="3">
-        <v>-0.2121</v>
+        <v>-0.2246</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.2121</v>
+        <v>-0.2246</v>
       </c>
       <c r="F4" s="3">
-        <v>-0.2121</v>
+        <v>-0.2246</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.2121</v>
+        <v>-0.2246</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.1005</v>
       </c>
       <c r="C5" s="3">
-        <v>0.0955</v>
+        <v>0.09569999999999999</v>
       </c>
       <c r="D5" s="3">
-        <v>0.09619999999999999</v>
+        <v>0.0964</v>
       </c>
       <c r="E5" s="3">
-        <v>0.09619999999999999</v>
+        <v>0.0964</v>
       </c>
       <c r="F5" s="3">
-        <v>0.09619999999999999</v>
+        <v>0.0964</v>
       </c>
       <c r="G5" s="3">
-        <v>0.09619999999999999</v>
+        <v>0.0964</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>-2.8239</v>
       </c>
       <c r="C6" s="4">
-        <v>-2.4289</v>
+        <v>-2.5538</v>
       </c>
       <c r="D6" s="4">
-        <v>-2.4155</v>
+        <v>-2.5407</v>
       </c>
       <c r="E6" s="4">
-        <v>-2.4155</v>
+        <v>-2.5407</v>
       </c>
       <c r="F6" s="4">
-        <v>-2.4155</v>
+        <v>-2.5407</v>
       </c>
       <c r="G6" s="4">
-        <v>-2.4155</v>
+        <v>-2.5407</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>-0.2002</v>
+        <v>-0.2065</v>
       </c>
       <c r="D7" s="3">
-        <v>-0.1997</v>
+        <v>-0.206</v>
       </c>
       <c r="E7" s="3">
-        <v>-0.1997</v>
+        <v>-0.206</v>
       </c>
       <c r="F7" s="3">
-        <v>-0.1997</v>
+        <v>-0.206</v>
       </c>
       <c r="G7" s="3">
-        <v>-0.1997</v>
+        <v>-0.206</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>3952.8969</v>
+        <v>3944.9524</v>
       </c>
       <c r="D8" s="1">
-        <v>3995.0199</v>
+        <v>3986.9063</v>
       </c>
       <c r="E8" s="1">
-        <v>3995.0199</v>
+        <v>3986.9063</v>
       </c>
       <c r="F8" s="1">
-        <v>3995.0199</v>
+        <v>3986.9063</v>
       </c>
       <c r="G8" s="1">
-        <v>3995.0199</v>
+        <v>3986.9063</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P71_KFSDIV.xlsx
+++ b/output/1Y_P71_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -721,7 +724,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.129</v>
@@ -765,7 +768,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.716</v>
@@ -815,7 +818,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.4613</v>
@@ -865,7 +868,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.6545</v>
@@ -915,7 +918,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.2345</v>
@@ -965,7 +968,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.1636</v>
@@ -1015,7 +1018,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>11.8145</v>
@@ -1065,7 +1068,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>11.2352</v>
@@ -1115,7 +1118,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.8241</v>
@@ -1165,7 +1168,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>11.2543</v>
@@ -1215,7 +1218,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.5675</v>
@@ -1265,7 +1268,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>9.967000000000001</v>
@@ -1315,7 +1318,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.0064</v>
@@ -1450,7 +1453,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.129</v>
@@ -1497,7 +1500,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.716</v>
@@ -1550,7 +1553,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.4613</v>
@@ -1603,7 +1606,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.6545</v>
@@ -1656,7 +1659,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.2345</v>
@@ -1709,7 +1712,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.1636</v>
@@ -1762,7 +1765,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>11.8145</v>
@@ -1815,7 +1818,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>11.2352</v>
@@ -1868,7 +1871,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.8241</v>
@@ -1921,7 +1924,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>11.2543</v>
@@ -1974,7 +1977,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.5675</v>
@@ -2027,7 +2030,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>9.967000000000001</v>
@@ -2080,7 +2083,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.0064</v>
@@ -2218,7 +2221,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.129</v>
@@ -2265,7 +2268,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.716</v>
@@ -2318,7 +2321,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.4613</v>
@@ -2371,7 +2374,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.6545</v>
@@ -2424,7 +2427,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.2345</v>
@@ -2477,7 +2480,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.1636</v>
@@ -2530,7 +2533,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>11.8145</v>
@@ -2583,7 +2586,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>11.2352</v>
@@ -2636,7 +2639,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.8241</v>
@@ -2689,7 +2692,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>11.2543</v>
@@ -2742,7 +2745,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.5675</v>
@@ -2795,7 +2798,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>9.967000000000001</v>
@@ -2848,7 +2851,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.0064</v>
@@ -2986,7 +2989,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.129</v>
@@ -3033,7 +3036,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.716</v>
@@ -3086,7 +3089,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.4613</v>
@@ -3139,7 +3142,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.6545</v>
@@ -3192,7 +3195,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.2345</v>
@@ -3245,7 +3248,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.1636</v>
@@ -3298,7 +3301,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>11.8145</v>
@@ -3351,7 +3354,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>11.2352</v>
@@ -3404,7 +3407,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.8241</v>
@@ -3457,7 +3460,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>11.2543</v>
@@ -3510,7 +3513,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.5675</v>
@@ -3563,7 +3566,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>9.967000000000001</v>
@@ -3616,7 +3619,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.0064</v>
@@ -3754,7 +3757,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.129</v>
@@ -3801,7 +3804,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.716</v>
@@ -3854,7 +3857,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.4613</v>
@@ -3907,7 +3910,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.6545</v>
@@ -3960,7 +3963,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.2345</v>
@@ -4013,7 +4016,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.1636</v>
@@ -4066,7 +4069,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>11.8145</v>
@@ -4119,7 +4122,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>11.2352</v>
@@ -4172,7 +4175,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.8241</v>
@@ -4225,7 +4228,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>11.2543</v>
@@ -4278,7 +4281,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.5675</v>
@@ -4331,7 +4334,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>9.967000000000001</v>
@@ -4384,7 +4387,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.0064</v>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>4901.4382</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.8577</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.8569</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.8569</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.8569</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.8569</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
